--- a/billboard/ParamList.xlsx
+++ b/billboard/ParamList.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sustc-my.sharepoint.com/personal/12111524_mail_sustech_edu_cn/Documents/DeepScience/202407 iSURE/GitHub/Characterization-and-Modeling-of-GaN-HEMT/billboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1754BF-08A8-AC40-B024-D6492DE63801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{1C1754BF-08A8-AC40-B024-D6492DE63801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1197CC8A-5878-4848-B38C-4883879ECDDF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Significant" sheetId="2" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="199">
   <si>
     <t>Idsmod</t>
   </si>
@@ -476,13 +477,169 @@
   </si>
   <si>
     <t>1·</t>
+  </si>
+  <si>
+    <t>最大gm处，id电流的值</t>
+  </si>
+  <si>
+    <t>最大gm处，Vg的值</t>
+  </si>
+  <si>
+    <t>delta gate voltage at peak gm</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>saturation parameter alpha r</t>
+  </si>
+  <si>
+    <t>saturation parameter alpha</t>
+  </si>
+  <si>
+    <t>channel length modulation parameter</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>id的大小</t>
+  </si>
+  <si>
+    <t>对DC的影响</t>
+  </si>
+  <si>
+    <t>对S参数的影响</t>
+  </si>
+  <si>
+    <t>开启区域的斜率和曲线离散程度</t>
+  </si>
+  <si>
+    <t>定义与提取</t>
+  </si>
+  <si>
+    <t>开启区域到饱和区域的过渡是否尖锐</t>
+  </si>
+  <si>
+    <t>饱和区域斜率</t>
+  </si>
+  <si>
+    <t>0-bias D-S capacitance</t>
+  </si>
+  <si>
+    <t>G-S pinch off capacitance</t>
+  </si>
+  <si>
+    <t>G-S capacitance param</t>
+  </si>
+  <si>
+    <t>G-D pinch off capacitance</t>
+  </si>
+  <si>
+    <t>G-D capacitance param</t>
+  </si>
+  <si>
+    <t>External G-D capacitance</t>
+  </si>
+  <si>
+    <t>Polynomial coeff for channel current</t>
+  </si>
+  <si>
+    <t>Polynomial coeff for channel current，峰值gm处的gm/id</t>
+  </si>
+  <si>
+    <t>Polynomial coeff for capacitance</t>
+  </si>
+  <si>
+    <t>Gate fwd saturation current</t>
+  </si>
+  <si>
+    <t>Gate resistance</t>
+  </si>
+  <si>
+    <t>Drain resistance</t>
+  </si>
+  <si>
+    <t>Source resistance</t>
+  </si>
+  <si>
+    <t>Input resistance</t>
+  </si>
+  <si>
+    <t>S11和S22幅值，越大越小；S21和S12离散程度和相位差，越大越小</t>
+  </si>
+  <si>
+    <t>S11幅值，越大越小；S21和S12的相位差和离散，越大越小；</t>
+  </si>
+  <si>
+    <t>开启区域的斜率；gate diode导通的位置</t>
+  </si>
+  <si>
+    <t>S22幅值，越大越小；S21和S12相位差，越大越大；</t>
+  </si>
+  <si>
+    <t>Gate resistance (None Ohmic)</t>
+  </si>
+  <si>
+    <t>S11幅值，越大越小； S21和S12离散程度，越大越小；</t>
+  </si>
+  <si>
+    <t>S22和S12幅值，越大越小；</t>
+  </si>
+  <si>
+    <t>Drain inductance</t>
+  </si>
+  <si>
+    <t>Gate inductance</t>
+  </si>
+  <si>
+    <t>Source inductance</t>
+  </si>
+  <si>
+    <t>id-vg曲线的幅值</t>
+  </si>
+  <si>
+    <t>idvg开启电压的位置</t>
+  </si>
+  <si>
+    <t>扫描gate电压，idvd曲线的密集程度，为负时vg电压和i开启关系相反</t>
+  </si>
+  <si>
+    <t>idvd曲线集中在峰值gm处的vg电压</t>
+  </si>
+  <si>
+    <t>idvd曲线的密集程度</t>
+  </si>
+  <si>
+    <t>idvd幅值；idvg正向导通区域的幅值</t>
+  </si>
+  <si>
+    <t>有影响，但考虑到严谨性请勿tune</t>
+  </si>
+  <si>
+    <t>S11相位差，越大越大；S21和S12相位差，越大越大；</t>
+  </si>
+  <si>
+    <t>S22相位差，越大越小；S21幅值和相位差，越大越大；S12相位差，越大越大；</t>
+  </si>
+  <si>
+    <t>S11和S22相位差，越大越大；S21和S12在高频一侧曲线向内卷曲</t>
+  </si>
+  <si>
+    <t>idvd高电压处，未开启区域的电流扇开，非常微小</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,6 +654,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -525,11 +695,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,11 +1017,836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B27D19-DD8A-884C-88AD-8DB5289C0FCC}">
+  <dimension ref="B2:BI39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="55.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="73" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" style="4" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="4"/>
+    <col min="16" max="16" width="10.83203125" style="5"/>
+    <col min="17" max="20" width="10.83203125" style="4"/>
+    <col min="21" max="21" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.83203125" style="4"/>
+    <col min="25" max="25" width="10.83203125" style="5"/>
+    <col min="26" max="33" width="10.83203125" style="4"/>
+    <col min="34" max="34" width="10.83203125" style="5"/>
+    <col min="35" max="42" width="10.83203125" style="4"/>
+    <col min="43" max="43" width="10.83203125" style="5"/>
+    <col min="44" max="51" width="10.83203125" style="4"/>
+    <col min="52" max="52" width="10.83203125" style="5"/>
+    <col min="53" max="60" width="10.83203125" style="4"/>
+    <col min="61" max="61" width="10.83203125" style="5"/>
+    <col min="62" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118C717B-6CE2-1C49-B11E-AF9547878177}">
   <dimension ref="A2:BJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/billboard/ParamList.xlsx
+++ b/billboard/ParamList.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="106" documentId="8_{1C1754BF-08A8-AC40-B024-D6492DE63801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1197CC8A-5878-4848-B38C-4883879ECDDF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant" sheetId="2" r:id="rId1"/>
@@ -695,14 +695,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,7 +1020,7 @@
   <dimension ref="B2:BI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1142,6 @@
       <c r="G5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1167,7 +1165,7 @@
       <c r="H6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1188,7 +1186,7 @@
       <c r="G7" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -1209,8 +1207,8 @@
       <c r="G8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1231,7 +1229,7 @@
       <c r="G9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -1252,7 +1250,7 @@
       <c r="G10" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">

--- a/billboard/ParamList.xlsx
+++ b/billboard/ParamList.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sustc-my.sharepoint.com/personal/12111524_mail_sustech_edu_cn/Documents/DeepScience/202407 iSURE/GitHub/Characterization-and-Modeling-of-GaN-HEMT/billboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Characterization-and-Modeling-of-GaN-HEMTs\billboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{1C1754BF-08A8-AC40-B024-D6492DE63801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1197CC8A-5878-4848-B38C-4883879ECDDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C17C2F-4FD0-4582-BE3C-21EC6F8801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant" sheetId="2" r:id="rId1"/>
-    <sheet name="All" sheetId="1" r:id="rId2"/>
+    <sheet name="SignParam-ENG" sheetId="3" r:id="rId2"/>
+    <sheet name="All" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -705,7 +706,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,9 +722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -761,7 +762,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -867,7 +868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1020,41 +1021,41 @@
   <dimension ref="B2:BI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="10.796875" style="4"/>
+    <col min="2" max="2" width="10.796875" style="5"/>
     <col min="3" max="3" width="55.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="55.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="73" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" style="4" customWidth="1"/>
-    <col min="13" max="15" width="10.83203125" style="4"/>
-    <col min="16" max="16" width="10.83203125" style="5"/>
-    <col min="17" max="20" width="10.83203125" style="4"/>
-    <col min="21" max="21" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="4"/>
-    <col min="25" max="25" width="10.83203125" style="5"/>
-    <col min="26" max="33" width="10.83203125" style="4"/>
-    <col min="34" max="34" width="10.83203125" style="5"/>
-    <col min="35" max="42" width="10.83203125" style="4"/>
-    <col min="43" max="43" width="10.83203125" style="5"/>
-    <col min="44" max="51" width="10.83203125" style="4"/>
-    <col min="52" max="52" width="10.83203125" style="5"/>
-    <col min="53" max="60" width="10.83203125" style="4"/>
-    <col min="61" max="61" width="10.83203125" style="5"/>
-    <col min="62" max="16384" width="10.83203125" style="4"/>
+    <col min="13" max="15" width="10.796875" style="4"/>
+    <col min="16" max="16" width="10.796875" style="5"/>
+    <col min="17" max="20" width="10.796875" style="4"/>
+    <col min="21" max="21" width="18.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.796875" style="4"/>
+    <col min="25" max="25" width="10.796875" style="5"/>
+    <col min="26" max="33" width="10.796875" style="4"/>
+    <col min="34" max="34" width="10.796875" style="5"/>
+    <col min="35" max="42" width="10.796875" style="4"/>
+    <col min="43" max="43" width="10.796875" style="5"/>
+    <col min="44" max="51" width="10.796875" style="4"/>
+    <col min="52" max="52" width="10.796875" style="5"/>
+    <col min="53" max="60" width="10.796875" style="4"/>
+    <col min="61" max="61" width="10.796875" style="5"/>
+    <col min="62" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>150</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1168,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1189,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1211,7 @@
       <c r="Q8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1253,7 @@
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>150</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
@@ -1545,7 +1546,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>150</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>45</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>48</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>49</v>
       </c>
@@ -1840,6 +1841,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C4FD55-6E6F-4B2D-B0B9-299034A7CA01}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118C717B-6CE2-1C49-B11E-AF9547878177}">
   <dimension ref="A2:BJ24"/>
   <sheetViews>
@@ -1847,23 +1862,23 @@
       <selection activeCell="T3" sqref="T3:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="3"/>
+    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="3"/>
-    <col min="29" max="29" width="10.83203125" style="3"/>
-    <col min="38" max="38" width="10.83203125" style="3"/>
-    <col min="47" max="47" width="10.83203125" style="3"/>
-    <col min="56" max="56" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="10.796875" style="3"/>
+    <col min="16" max="16" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.796875" style="3"/>
+    <col min="29" max="29" width="10.796875" style="3"/>
+    <col min="38" max="38" width="10.796875" style="3"/>
+    <col min="47" max="47" width="10.796875" style="3"/>
+    <col min="56" max="56" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2012,7 +2027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2168,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2357,7 +2372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
@@ -2646,7 +2661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>1</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:56" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>3</v>
       </c>

--- a/billboard/ParamList.xlsx
+++ b/billboard/ParamList.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Characterization-and-Modeling-of-GaN-HEMTs\billboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sustc-my.sharepoint.com/personal/12111524_mail_sustech_edu_cn/Documents/DeepScience/202407 iSURE/GitHub/Characterization-and-Modeling-of-GaN-HEMT/billboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C17C2F-4FD0-4582-BE3C-21EC6F8801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{D7C17C2F-4FD0-4582-BE3C-21EC6F8801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6561669-A887-7744-9DE1-14D1DE888BB5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant" sheetId="2" r:id="rId1"/>
     <sheet name="SignParam-ENG" sheetId="3" r:id="rId2"/>
     <sheet name="All" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="203">
   <si>
     <t>Idsmod</t>
   </si>
@@ -634,13 +634,25 @@
   </si>
   <si>
     <t>idvd高电压处，未开启区域的电流扇开，非常微小</t>
+  </si>
+  <si>
+    <t>Raw Value</t>
+  </si>
+  <si>
+    <t>Mod Value</t>
+  </si>
+  <si>
+    <t>0.61+1.57i</t>
+  </si>
+  <si>
+    <t>-0.22-0.79*i that’s all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,6 +678,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -696,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -704,9 +722,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,9 +746,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -762,7 +786,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -868,7 +892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1010,7 +1034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,820 +1042,935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B27D19-DD8A-884C-88AD-8DB5289C0FCC}">
-  <dimension ref="B2:BI39"/>
+  <dimension ref="B2:BL39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="4"/>
-    <col min="2" max="2" width="10.796875" style="5"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="55.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="73" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="4" customWidth="1"/>
-    <col min="13" max="15" width="10.796875" style="4"/>
-    <col min="16" max="16" width="10.796875" style="5"/>
-    <col min="17" max="20" width="10.796875" style="4"/>
-    <col min="21" max="21" width="18.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.796875" style="4"/>
-    <col min="25" max="25" width="10.796875" style="5"/>
-    <col min="26" max="33" width="10.796875" style="4"/>
-    <col min="34" max="34" width="10.796875" style="5"/>
-    <col min="35" max="42" width="10.796875" style="4"/>
-    <col min="43" max="43" width="10.796875" style="5"/>
-    <col min="44" max="51" width="10.796875" style="4"/>
-    <col min="52" max="52" width="10.796875" style="5"/>
-    <col min="53" max="60" width="10.796875" style="4"/>
-    <col min="61" max="61" width="10.796875" style="5"/>
-    <col min="62" max="16384" width="10.796875" style="4"/>
+    <col min="4" max="4" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="55.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="73" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" style="4" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="19" width="10.83203125" style="5"/>
+    <col min="20" max="23" width="10.83203125" style="4"/>
+    <col min="24" max="24" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.83203125" style="4"/>
+    <col min="28" max="28" width="10.83203125" style="5"/>
+    <col min="29" max="36" width="10.83203125" style="4"/>
+    <col min="37" max="37" width="10.83203125" style="5"/>
+    <col min="38" max="45" width="10.83203125" style="4"/>
+    <col min="46" max="46" width="10.83203125" style="5"/>
+    <col min="47" max="54" width="10.83203125" style="4"/>
+    <col min="55" max="55" width="10.83203125" style="5"/>
+    <col min="56" max="63" width="10.83203125" style="4"/>
+    <col min="64" max="64" width="10.83203125" style="5"/>
+    <col min="65" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T8" s="6"/>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10"/>
+      <c r="G15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="11">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="11">
+        <v>88</v>
+      </c>
+      <c r="E17" s="8">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="11">
+        <f>171-88</f>
+        <v>83</v>
+      </c>
+      <c r="E18" s="8">
+        <f>170-150</f>
+        <v>20</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="11">
+        <v>44</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="11">
+        <f>97-44</f>
+        <v>53</v>
+      </c>
+      <c r="E20" s="8">
+        <f>98-5</f>
+        <v>93</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="11">
+        <v>1.61</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="11">
+        <v>2.21</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="11">
+        <v>-0.52</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="11">
+        <v>-0.06</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10"/>
+      <c r="G31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="D32" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="D33" s="11">
+        <v>13</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="D34" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="4" t="s">
+      <c r="D35" s="11">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="D36" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="D37" s="11">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="D38" s="11">
+        <v>39.4</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="D39" s="12">
+        <v>-9.4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1848,7 +1987,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1862,23 +2001,23 @@
       <selection activeCell="T3" sqref="T3:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="3"/>
-    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" style="3"/>
-    <col min="16" max="16" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.796875" style="3"/>
-    <col min="29" max="29" width="10.796875" style="3"/>
-    <col min="38" max="38" width="10.796875" style="3"/>
-    <col min="47" max="47" width="10.796875" style="3"/>
-    <col min="56" max="56" width="10.796875" style="3"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="3"/>
+    <col min="29" max="29" width="10.83203125" style="3"/>
+    <col min="38" max="38" width="10.83203125" style="3"/>
+    <col min="47" max="47" width="10.83203125" style="3"/>
+    <col min="56" max="56" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2027,7 +2166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2118,7 +2257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2168,7 +2307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2203,7 +2342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2584,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2513,7 +2652,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2589,7 +2728,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2630,7 +2769,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
@@ -2653,7 +2792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
@@ -2661,7 +2800,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>1</v>
       </c>
@@ -2669,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>3</v>
       </c>

--- a/billboard/ParamList.xlsx
+++ b/billboard/ParamList.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sustc-my.sharepoint.com/personal/12111524_mail_sustech_edu_cn/Documents/DeepScience/202407 iSURE/GitHub/Characterization-and-Modeling-of-GaN-HEMT/billboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{D7C17C2F-4FD0-4582-BE3C-21EC6F8801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6561669-A887-7744-9DE1-14D1DE888BB5}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{D7C17C2F-4FD0-4582-BE3C-21EC6F8801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70FEDD4-A76A-4546-AC52-F43CD7A03B15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{88C781BB-EB5C-664D-9596-BAFDE7D24BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant" sheetId="2" r:id="rId1"/>
-    <sheet name="SignParam-ENG" sheetId="3" r:id="rId2"/>
+    <sheet name="TUN" sheetId="3" r:id="rId2"/>
     <sheet name="All" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="212">
   <si>
     <t>Idsmod</t>
   </si>
@@ -646,6 +646,33 @@
   </si>
   <si>
     <t>-0.22-0.79*i that’s all</t>
+  </si>
+  <si>
+    <t>pinch-off 仿真中，低频起点的离散程度，越大越离散</t>
+  </si>
+  <si>
+    <t>pinch-off 仿真中，低频起点的离散程度，越小越离散</t>
+  </si>
+  <si>
+    <t>S22相位差，越大越大；S21相位差，越大越大</t>
+  </si>
+  <si>
+    <t>S21外侧幅值，越大越小；</t>
+  </si>
+  <si>
+    <t>S21和S12内侧幅值，越大越小；S12外侧幅值，越大越大；</t>
+  </si>
+  <si>
+    <t>S21曲率，越大越大；</t>
+  </si>
+  <si>
+    <t>曲线次序</t>
+  </si>
+  <si>
+    <t>S21和S12向外离散</t>
+  </si>
+  <si>
+    <t>因变量，不建议tune</t>
   </si>
 </sst>
 </file>
@@ -714,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -725,9 +752,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B27D19-DD8A-884C-88AD-8DB5289C0FCC}">
   <dimension ref="B2:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1077,7 @@
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="55.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
@@ -1088,7 +1112,7 @@
       <c r="C2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1117,7 +1141,7 @@
       <c r="C3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G3" s="7">
@@ -1143,7 +1167,7 @@
       <c r="C4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="4">
         <v>-0.1</v>
       </c>
       <c r="G4" s="4">
@@ -1181,6 +1205,9 @@
       <c r="J5" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="K5" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1189,7 +1216,7 @@
       <c r="C6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="4">
         <v>1.08</v>
       </c>
       <c r="G6" s="4">
@@ -1228,6 +1255,9 @@
       <c r="J7" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="K7" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
@@ -1249,6 +1279,9 @@
       <c r="J8" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="AC8" s="6"/>
     </row>
@@ -1271,6 +1304,9 @@
       <c r="J9" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="K9" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
@@ -1292,6 +1328,9 @@
       <c r="J10" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
@@ -1370,7 +1409,6 @@
       <c r="C15" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="10"/>
       <c r="G15" s="5" t="s">
         <v>154</v>
       </c>
@@ -1394,7 +1432,7 @@
       <c r="C16" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="4">
         <v>29</v>
       </c>
       <c r="E16" s="8">
@@ -1412,6 +1450,9 @@
       </c>
       <c r="J16" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -1421,7 +1462,7 @@
       <c r="C17" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="4">
         <v>88</v>
       </c>
       <c r="E17" s="8">
@@ -1439,6 +1480,9 @@
       </c>
       <c r="J17" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -1448,7 +1492,7 @@
       <c r="C18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="4">
         <f>171-88</f>
         <v>83</v>
       </c>
@@ -1469,6 +1513,9 @@
       <c r="J18" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="K18" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
@@ -1477,7 +1524,7 @@
       <c r="C19" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="4">
         <v>44</v>
       </c>
       <c r="E19" s="8">
@@ -1495,6 +1542,9 @@
       </c>
       <c r="J19" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -1504,7 +1554,7 @@
       <c r="C20" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="4">
         <f>97-44</f>
         <v>53</v>
       </c>
@@ -1525,6 +1575,9 @@
       <c r="J20" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="K20" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
@@ -1533,7 +1586,7 @@
       <c r="C21" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="4">
         <v>5.2</v>
       </c>
       <c r="G21" s="4">
@@ -1547,6 +1600,9 @@
       </c>
       <c r="J21" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -1556,7 +1612,7 @@
       <c r="C22" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="4">
         <v>1.61</v>
       </c>
       <c r="G22" s="4">
@@ -1570,6 +1626,9 @@
       </c>
       <c r="J22" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -1579,7 +1638,7 @@
       <c r="C23" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="4">
         <v>2.21</v>
       </c>
       <c r="G23" s="4">
@@ -1593,6 +1652,9 @@
       </c>
       <c r="J23" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -1602,7 +1664,7 @@
       <c r="C24" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="4">
         <v>-0.52</v>
       </c>
       <c r="G24" s="4">
@@ -1616,6 +1678,9 @@
       </c>
       <c r="J24" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1625,7 +1690,7 @@
       <c r="C25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="4">
         <v>-0.06</v>
       </c>
       <c r="E25" s="4"/>
@@ -1642,7 +1707,9 @@
       <c r="J25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="26" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
@@ -1651,7 +1718,7 @@
       <c r="C26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E26" s="4"/>
@@ -1668,7 +1735,9 @@
       <c r="J26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="27" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
@@ -1677,7 +1746,7 @@
       <c r="C27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E27" s="4"/>
@@ -1694,7 +1763,9 @@
       <c r="J27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
@@ -1718,6 +1789,9 @@
       <c r="J28" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="K28" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
@@ -1741,6 +1815,9 @@
       <c r="J29" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="31" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
@@ -1749,7 +1826,6 @@
       <c r="C31" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="10"/>
       <c r="G31" s="5" t="s">
         <v>154</v>
       </c>
@@ -1773,7 +1849,7 @@
       <c r="C32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="4">
         <v>25.2</v>
       </c>
       <c r="G32" s="4">
@@ -1799,7 +1875,7 @@
       <c r="C33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="4">
         <v>13</v>
       </c>
       <c r="G33" s="4">
@@ -1825,7 +1901,7 @@
       <c r="C34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="G34" s="4">
@@ -1851,7 +1927,7 @@
       <c r="C35" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="4">
         <v>8</v>
       </c>
       <c r="G35" s="4">
@@ -1877,7 +1953,7 @@
       <c r="C36" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="4">
         <v>27.2</v>
       </c>
       <c r="G36" s="4">
@@ -1903,7 +1979,7 @@
       <c r="C37" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="4">
         <v>20</v>
       </c>
       <c r="G37" s="4">
@@ -1929,7 +2005,7 @@
       <c r="C38" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="4">
         <v>39.4</v>
       </c>
       <c r="G38" s="4">
@@ -1955,7 +2031,7 @@
       <c r="C39" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="7">
         <v>-9.4</v>
       </c>
       <c r="G39" s="4">
@@ -1981,14 +2057,425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C4FD55-6E6F-4B2D-B0B9-299034A7CA01}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
